--- a/BalanceSheet/ADP_bal.xlsx
+++ b/BalanceSheet/ADP_bal.xlsx
@@ -4886,7 +4886,7 @@
         <v>756000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>961000000.0</v>
+        <v>497000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>-2944300000.0</v>
@@ -5013,7 +5013,7 @@
         <v>2464000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>2469000000.0</v>
+        <v>2004600000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>2004700000.0</v>
